--- a/data/trans_camb/P19_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-5,52</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 11,7</t>
+          <t>-11,58; 6,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 11,3</t>
+          <t>-11,84; 8,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 13,05</t>
+          <t>-16,67; 2,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 0,53</t>
+          <t>1,3; 15,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 6,88</t>
+          <t>-12,6; 3,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 2,77</t>
+          <t>-11,98; 5,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 0,69</t>
+          <t>-5,43; 12,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; -1,65</t>
+          <t>-3,22; 13,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 6,23</t>
+          <t>-0,55; 15,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 3,74</t>
+          <t>-1,95; 15,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,28</t>
+          <t>-11,16; 6,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-14,54; -2,72</t>
+          <t>-14,34; 2,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 5,95</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 7,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 6,93</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 13,13</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; 2,69</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 1,85</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>-7,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-45,97%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,04%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,64%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,75%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,97%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-14,93%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-47,07%</t>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-3,75%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-4,62%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 104,88</t>
+          <t>-13,31; 7,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 96,84</t>
+          <t>-13,77; 9,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 107,35</t>
+          <t>-19,06; 3,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 7,79</t>
+          <t>1,61; 20,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 41,18</t>
+          <t>-13,15; 3,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 17,16</t>
+          <t>-12,72; 6,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 6,29</t>
+          <t>-6,71; 17,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,94; -9,02</t>
+          <t>-3,86; 18,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 41,27</t>
+          <t>-0,73; 21,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 27,19</t>
+          <t>-2,43; 21,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 28,67</t>
+          <t>-12,4; 8,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-68,27; -17,03</t>
+          <t>-15,82; 3,28</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 7,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 9,93</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 8,72</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 16,5</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; 3,11</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-11,02; 2,12</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>14,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,44</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 4,11</t>
+          <t>-3,19; 17,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 4,34</t>
+          <t>-3,54; 15,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 10,22</t>
+          <t>-10,78; 15,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -3,41</t>
+          <t>6,73; 24,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 8,45</t>
+          <t>-14,23; 3,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,93</t>
+          <t>-12,6; 6,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 0,16</t>
+          <t>-7,7; 8,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,4</t>
+          <t>-5,26; 9,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,26</t>
+          <t>-0,02; 14,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 2,31</t>
+          <t>0,6; 15,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 3,41</t>
+          <t>-10,73; 4,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -4,28</t>
+          <t>-8,39; 6,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 10,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 9,1</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 11,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 16,97</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 2,11</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 3,74</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,77%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,7%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-53,41%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,12%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-38,66%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,31%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-15,96%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-26,88%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-46,97%</t>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 24,98</t>
+          <t>-3,91; 25,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 26,79</t>
+          <t>-4,41; 22,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 57,64</t>
+          <t>-13,1; 21,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,27; -14,89</t>
+          <t>8,19; 36,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 58,8</t>
+          <t>-15,03; 3,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 39,83</t>
+          <t>-13,53; 7,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 1,57</t>
+          <t>-9,06; 10,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,48; 3,3</t>
+          <t>-6,29; 12,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 19,3</t>
+          <t>0,08; 19,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 12,89</t>
+          <t>0,73; 20,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 20,24</t>
+          <t>-11,43; 5,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-65,57; -21,77</t>
+          <t>-9,3; 7,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 13,71</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 12,15</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 15,96</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 22,57</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 2,42</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 4,31</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,79</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,49</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 12,96</t>
+          <t>-9,81; 5,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 0,04</t>
+          <t>-0,57; 12,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -2,2</t>
+          <t>2,98; 16,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 3,65</t>
+          <t>-2,97; 12,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 2,63</t>
+          <t>-4,96; 10,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 5,54</t>
+          <t>-3,39; 10,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -2,43</t>
+          <t>-2,88; 9,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -1,95</t>
+          <t>-5,66; 6,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 5,53</t>
+          <t>2,78; 14,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,25</t>
+          <t>3,88; 15,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -4,07</t>
+          <t>-6,23; 4,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; -0,69</t>
+          <t>-5,04; 6,13</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 6,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 7,93</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 13,01</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 12,53</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 5,49</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 6,8</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,26%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,94%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,61%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,34%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-43,56%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-41,78%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-28,88%</t>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 78,93</t>
+          <t>-11,85; 7,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 1,06</t>
+          <t>-0,47; 17,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,79; -11,62</t>
+          <t>3,62; 22,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 21,76</t>
+          <t>-3,56; 16,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 15,97</t>
+          <t>-5,7; 12,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 35,94</t>
+          <t>-4,06; 13,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,47; -14,57</t>
+          <t>-3,49; 12,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,7; -11,29</t>
+          <t>-6,68; 8,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 31,73</t>
+          <t>3,18; 18,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 7,52</t>
+          <t>4,89; 20,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; -22,76</t>
+          <t>-6,85; 5,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -3,09</t>
+          <t>-5,62; 7,19</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 8,63</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 10,48</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 17,09</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 16,18</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 6,45</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 8,24</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,67</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 1,98</t>
+          <t>-2,82; 12,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 3,36</t>
+          <t>-3,03; 11,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 2,74</t>
+          <t>-4,26; 12,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 6,28</t>
+          <t>1,27; 15,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 2,02</t>
+          <t>-11,68; 1,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -0,96</t>
+          <t>-5,96; 9,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -4,99</t>
+          <t>-1,99; 11,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 2,21</t>
+          <t>1,03; 13,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 0,05</t>
+          <t>5,1; 16,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -0,25</t>
+          <t>3,37; 15,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -2,6</t>
+          <t>-5,44; 6,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 1,84</t>
+          <t>-1,26; 11,86</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 9,31</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 9,77</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 11,97</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 13,45</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 2,09</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 8,16</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-41,97%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,88%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,59%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-22,32%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-33,19%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-15,18%</t>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 12,52</t>
+          <t>-3,38; 17,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 20,65</t>
+          <t>-3,62; 15,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,66; 17,62</t>
+          <t>-5,03; 15,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 37,53</t>
+          <t>1,51; 21,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 9,52</t>
+          <t>-13,01; 2,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,47; -3,32</t>
+          <t>-7,0; 12,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -21,41</t>
+          <t>-2,55; 15,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,0; 8,72</t>
+          <t>1,3; 18,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 0,4</t>
+          <t>6,7; 23,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-39,03; -0,77</t>
+          <t>4,16; 22,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-49,78; -11,74</t>
+          <t>-6,17; 8,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 9,2</t>
+          <t>-1,47; 15,67</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 12,58</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 13,0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 16,02</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 17,96</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 2,42</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 10,49</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,93</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>8,87</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-8,22</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 10,89</t>
+          <t>-11,26; 4,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 2,81</t>
+          <t>-2,83; 10,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -0,3</t>
+          <t>-0,31; 12,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 10,98</t>
+          <t>-2,7; 11,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 7,41</t>
+          <t>-16,05; -0,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 8,98</t>
+          <t>-9,24; 8,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-19,5; -4,79</t>
+          <t>-7,05; 10,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 9,79</t>
+          <t>-9,66; 6,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 6,75</t>
+          <t>5,28; 19,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 3,88</t>
+          <t>3,67; 18,72</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -4,33</t>
+          <t>-15,39; -0,35</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,32</t>
+          <t>-4,36; 12,5</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 4,17</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 6,16</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 13,73</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 13,06</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; -2,6</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 7,56</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-20,93%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-35,05%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-51,39%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-9,03%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 69,76</t>
+          <t>-13,11; 5,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 22,25</t>
+          <t>-3,23; 13,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 0,79</t>
+          <t>-0,25; 16,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 73,81</t>
+          <t>-3,22; 15,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 38,42</t>
+          <t>-18,34; -0,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 46,88</t>
+          <t>-11,23; 11,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-69,45; -25,0</t>
+          <t>-8,7; 14,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 52,58</t>
+          <t>-12,01; 9,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 37,85</t>
+          <t>6,75; 27,71</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 21,9</t>
+          <t>4,65; 26,61</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-58,48; -23,3</t>
+          <t>-17,42; -0,68</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 47,4</t>
+          <t>-5,57; 17,54</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 5,43</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 8,27</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 18,13</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 17,19</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; -3,05</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 10,25</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-5,89</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-7,22</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-9,59</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
           <t>-2,61</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>2,0</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-5,87</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-6,35</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,05</t>
+          <t>-10,74; 5,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 12,51</t>
+          <t>-11,77; 4,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 3,91</t>
+          <t>-4,64; 9,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 6,46</t>
+          <t>-5,71; 10,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 12,6</t>
+          <t>-11,66; 5,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 9,89</t>
+          <t>-11,1; 6,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 10,04</t>
+          <t>-14,99; 2,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 5,57</t>
+          <t>-10,67; 4,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 9,88</t>
+          <t>-11,48; 5,39</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,19</t>
+          <t>-7,04; 10,64</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 5,35</t>
+          <t>-17,44; 2,77</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,63</t>
+          <t>-19,77; 0,67</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 1,62</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 3,0</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 5,64</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 8,08</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 0,95</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 0,1</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-17,76%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,08%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-16,83%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>-9,03%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>-13,44%</t>
+          <t>-11,65%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-5,59%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-7,02%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 88,43</t>
+          <t>-12,57; 6,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 102,62</t>
+          <t>-13,27; 5,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 41,88</t>
+          <t>-5,21; 12,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 57,52</t>
+          <t>-6,51; 13,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 67,98</t>
+          <t>-12,45; 6,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 55,34</t>
+          <t>-12,31; 7,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 56,18</t>
+          <t>-18,78; 2,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 32,01</t>
+          <t>-13,1; 5,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 58,45</t>
+          <t>-14,28; 7,07</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 51,56</t>
+          <t>-8,55; 14,33</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 33,87</t>
+          <t>-20,67; 3,63</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 22,13</t>
+          <t>-22,44; 0,86</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 2,02</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 3,89</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 7,18</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 10,28</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-14,7; 1,13</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-15,9; 0,13</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,65</t>
+          <t>-2,83; 4,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,47</t>
+          <t>-0,7; 5,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,36</t>
+          <t>-0,4; 7,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,09</t>
+          <t>3,47; 10,41</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,71</t>
+          <t>-6,86; -0,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,85</t>
+          <t>-3,7; 2,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -4,59</t>
+          <t>-2,16; 4,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -2,32</t>
+          <t>-1,22; 4,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,52</t>
+          <t>3,78; 10,02</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,05</t>
+          <t>4,3; 10,48</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -3,21</t>
+          <t>-6,43; -0,01</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,07</t>
+          <t>-4,51; 2,43</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,24</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 4,34</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 7,61</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 9,7</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; -1,24</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 1,78</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-24,85%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>-22,44%</t>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 21,45</t>
+          <t>-3,44; 5,64</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 3,35</t>
+          <t>-0,85; 7,21</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -1,22</t>
+          <t>-0,42; 9,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 1,27</t>
+          <t>4,18; 13,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 8,56</t>
+          <t>-7,61; -0,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 4,02</t>
+          <t>-4,25; 3,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-43,13; -22,71</t>
+          <t>-2,72; 5,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-36,91; -11,4</t>
+          <t>-1,5; 6,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 7,64</t>
+          <t>4,76; 13,12</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -0,16</t>
+          <t>5,42; 13,67</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-36,58; -16,06</t>
+          <t>-7,43; -0,05</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-32,24; -10,34</t>
+          <t>-5,31; 2,99</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 4,13</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 5,51</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 9,7</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 12,44</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; -1,43</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 2,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
